--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="313">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -458,13 +458,20 @@
 </t>
   </si>
   <si>
-    <t>Identifies this organization  across multiple systems</t>
+    <t>Identifier for the marketing authorisation holder</t>
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t xml:space="preserve">org-1
@@ -486,6 +493,227 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>Location ID from EMA SPOR OMS</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/v1/locations</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>Organisation ID from EMA SPOR OMS</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/v1/organisations</t>
+  </si>
+  <si>
     <t>Organization.active</t>
   </si>
   <si>
@@ -525,10 +753,6 @@
   </si>
   <si>
     <t>Organization.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Kind of organization</t>
@@ -560,20 +784,13 @@
     <t>.code</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
     <t>Organization.name</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Name used for the organization</t>
+    <t>Marketing authorisation holder's name from OMS</t>
   </si>
   <si>
     <t>A name associated with the organization.</t>
@@ -655,10 +872,6 @@
   </si>
   <si>
     <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>The organization of which this organization forms a part</t>
@@ -710,22 +923,7 @@
     <t>Organization.qualification.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Organization.qualification.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Organization.qualification.modifierExtension</t>
@@ -770,10 +968,6 @@
   </si>
   <si>
     <t>Organization.qualification.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Period during which the qualification is valid</t>
@@ -1088,7 +1282,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1121,10 +1315,10 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="58.828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="42.41796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.45703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1133,7 +1327,7 @@
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="60.453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="29.29296875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
@@ -2295,7 +2489,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
@@ -2357,16 +2551,14 @@
         <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>141</v>
@@ -2378,38 +2570,40 @@
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>84</v>
@@ -2418,32 +2612,28 @@
         <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P12" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2487,39 +2677,39 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2530,7 +2720,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -2539,23 +2729,19 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>74</v>
       </c>
@@ -2579,13 +2765,13 @@
         <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>74</v>
@@ -2603,50 +2789,50 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -2655,23 +2841,21 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>74</v>
       </c>
@@ -2707,43 +2891,43 @@
         <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -2751,7 +2935,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2762,31 +2946,31 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -2811,13 +2995,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -2835,13 +3017,13 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
@@ -2850,10 +3032,10 @@
         <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -2867,7 +3049,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2890,17 +3072,19 @@
         <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N16" t="s" s="2">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -2925,13 +3109,11 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
@@ -2949,7 +3131,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -2964,10 +3146,10 @@
         <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -2981,7 +3163,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2989,10 +3171,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -3001,22 +3183,22 @@
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3026,10 +3208,10 @@
         <v>74</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>74</v>
@@ -3065,31 +3247,31 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3097,7 +3279,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3120,18 +3302,18 @@
         <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3143,7 +3325,7 @@
         <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>74</v>
@@ -3179,7 +3361,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3194,16 +3376,16 @@
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3211,7 +3393,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3222,7 +3404,7 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>74</v>
@@ -3231,21 +3413,19 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3293,13 +3473,13 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -3308,16 +3488,16 @@
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3325,7 +3505,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3336,7 +3516,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3345,18 +3525,20 @@
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3405,13 +3587,13 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
@@ -3423,13 +3605,13 @@
         <v>220</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
@@ -3437,9 +3619,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3457,19 +3641,21 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3517,50 +3703,50 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -3572,17 +3758,15 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3631,25 +3815,25 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3663,11 +3847,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3680,26 +3864,24 @@
         <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3735,19 +3917,19 @@
         <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3765,7 +3947,7 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3779,7 +3961,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3790,29 +3972,31 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N24" t="s" s="2">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -3837,13 +4021,11 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -3861,13 +4043,13 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -3876,10 +4058,10 @@
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -3893,7 +4075,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3901,7 +4083,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>84</v>
@@ -3913,19 +4095,23 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -3949,13 +4135,11 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -3973,10 +4157,10 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>84</v>
@@ -3988,10 +4172,10 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4005,7 +4189,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4013,7 +4197,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>84</v>
@@ -4025,20 +4209,22 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>242</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4048,10 +4234,10 @@
         <v>74</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>74</v>
@@ -4087,7 +4273,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4102,16 +4288,16 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4119,7 +4305,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4139,18 +4325,20 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4163,7 +4351,7 @@
         <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>74</v>
@@ -4199,7 +4387,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4214,18 +4402,2074 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="314">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -461,7 +461,7 @@
     <t>Identifier for the marketing authorisation holder</t>
   </si>
   <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+    <t>EMA IG 2.8</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>Location ID from EMA SPOR OMS</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
     <t>Organization.identifier.id</t>
@@ -2624,7 +2627,7 @@
         <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
@@ -2709,7 +2712,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2735,10 +2738,10 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2789,7 +2792,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2807,7 +2810,7 @@
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -2821,7 +2824,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2850,7 +2853,7 @@
         <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>133</v>
@@ -2891,10 +2894,10 @@
         <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>74</v>
@@ -2903,7 +2906,7 @@
         <v>147</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2921,7 +2924,7 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -2935,7 +2938,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2961,16 +2964,16 @@
         <v>104</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -2995,11 +2998,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -3017,7 +3020,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3035,7 +3038,7 @@
         <v>127</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3049,7 +3052,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3072,19 +3075,19 @@
         <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3109,11 +3112,11 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
@@ -3131,7 +3134,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3146,10 +3149,10 @@
         <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -3163,7 +3166,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3189,16 +3192,16 @@
         <v>98</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3208,10 +3211,10 @@
         <v>74</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>74</v>
@@ -3247,7 +3250,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3262,16 +3265,16 @@
         <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3302,16 +3305,16 @@
         <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3325,7 +3328,7 @@
         <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>74</v>
@@ -3361,7 +3364,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3376,16 +3379,16 @@
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3416,13 +3419,13 @@
         <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3473,7 +3476,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3488,16 +3491,16 @@
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3505,7 +3508,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3528,16 +3531,16 @@
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3587,7 +3590,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3602,16 +3605,16 @@
         <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
@@ -3622,7 +3625,7 @@
         <v>141</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>74</v>
@@ -3647,10 +3650,10 @@
         <v>142</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
@@ -3735,7 +3738,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3761,10 +3764,10 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3815,7 +3818,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3833,7 +3836,7 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3847,7 +3850,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3876,7 +3879,7 @@
         <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>133</v>
@@ -3917,10 +3920,10 @@
         <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>74</v>
@@ -3929,7 +3932,7 @@
         <v>147</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3947,7 +3950,7 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3961,7 +3964,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3987,16 +3990,16 @@
         <v>104</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4021,11 +4024,11 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -4043,7 +4046,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4061,7 +4064,7 @@
         <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4075,7 +4078,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4098,19 +4101,19 @@
         <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4135,11 +4138,11 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4157,7 +4160,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4172,10 +4175,10 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4189,7 +4192,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4215,16 +4218,16 @@
         <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4234,10 +4237,10 @@
         <v>74</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>74</v>
@@ -4273,7 +4276,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4288,16 +4291,16 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4305,7 +4308,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4328,16 +4331,16 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4351,7 +4354,7 @@
         <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>74</v>
@@ -4387,7 +4390,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4402,16 +4405,16 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>74</v>
@@ -4419,7 +4422,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4442,13 +4445,13 @@
         <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4499,7 +4502,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4514,16 +4517,16 @@
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4554,16 +4557,16 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4613,7 +4616,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4628,16 +4631,16 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4645,7 +4648,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4668,70 +4671,70 @@
         <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4746,24 +4749,24 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4786,19 +4789,19 @@
         <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -4823,13 +4826,13 @@
         <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -4847,7 +4850,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4862,24 +4865,24 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4902,19 +4905,19 @@
         <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -4963,7 +4966,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4978,16 +4981,16 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -4995,7 +4998,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5018,19 +5021,19 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5079,7 +5082,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5097,7 +5100,7 @@
         <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5111,7 +5114,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5134,17 +5137,17 @@
         <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5193,7 +5196,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5211,7 +5214,7 @@
         <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5225,7 +5228,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5248,19 +5251,19 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5309,7 +5312,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5321,13 +5324,13 @@
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5341,7 +5344,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5364,17 +5367,17 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
@@ -5423,7 +5426,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5438,16 +5441,16 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5455,7 +5458,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5478,17 +5481,17 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
@@ -5537,7 +5540,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5555,7 +5558,7 @@
         <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5569,7 +5572,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5592,13 +5595,13 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5649,7 +5652,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5664,10 +5667,10 @@
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -5681,7 +5684,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5704,13 +5707,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5761,7 +5764,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5779,7 +5782,7 @@
         <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5793,7 +5796,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5822,7 +5825,7 @@
         <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>133</v>
@@ -5875,7 +5878,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5893,7 +5896,7 @@
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5907,11 +5910,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5933,10 +5936,10 @@
         <v>130</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>133</v>
@@ -5991,7 +5994,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6023,7 +6026,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6049,14 +6052,14 @@
         <v>142</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6105,7 +6108,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6123,7 +6126,7 @@
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6137,7 +6140,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6160,13 +6163,13 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6193,10 +6196,10 @@
         <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y43" t="s" s="2">
         <v>74</v>
@@ -6217,7 +6220,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>84</v>
@@ -6235,7 +6238,7 @@
         <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6249,7 +6252,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6272,17 +6275,17 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6331,7 +6334,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6349,7 +6352,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6363,7 +6366,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6386,13 +6389,13 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6443,7 +6446,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6461,7 +6464,7 @@
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="314">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLOrganization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -228,6 +228,9 @@
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
+    <t>Mapping: Interface Pattern</t>
+  </si>
+  <si>
     <t>Mapping: ServD</t>
   </si>
   <si>
@@ -253,6 +256,9 @@
   </si>
   <si>
     <t>Organization(classCode=ORG, determinerCode=INST)</t>
+  </si>
+  <si>
+    <t>ParticipantContactable</t>
   </si>
   <si>
     <t>administrative.group</t>
@@ -277,7 +283,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +373,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,17 +396,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +445,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -482,6 +484,9 @@
     <t>.scopes[Role](classCode=IDENT)</t>
   </si>
   <si>
+    <t>Participant.identifier</t>
+  </si>
+  <si>
     <t>./Identifiers</t>
   </si>
   <si>
@@ -546,7 +551,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -592,7 +597,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -632,7 +637,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -739,6 +744,9 @@
   </si>
   <si>
     <t>.status</t>
+  </si>
+  <si>
+    <t>Participant.active</t>
   </si>
   <si>
     <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
@@ -803,6 +811,9 @@
     <t>.name</t>
   </si>
   <si>
+    <t>Participant.name</t>
+  </si>
+  <si>
     <t>.PreferredName/Name</t>
   </si>
   <si>
@@ -822,126 +833,103 @@
 For searching knowing previous names that the organization was known by can be very useful.</t>
   </si>
   <si>
-    <t>Organization.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
+    <t>Organization.description</t>
+  </si>
+  <si>
+    <t>Additional details about the Organization that could be displayed as further information to identify the Organization beyond its name</t>
+  </si>
+  <si>
+    <t>Description of the organization, which helps provide additional general context on the organization to ensure that the correct organization is selected.</t>
+  </si>
+  <si>
+    <t>Humans need additional information to verify a correct Organization has been selected.</t>
+  </si>
+  <si>
+    <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
+  </si>
+  <si>
+    <t>Organization.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExtendedContactDetail
 </t>
   </si>
   <si>
-    <t>A contact detail for the organization</t>
-  </si>
-  <si>
-    <t>A contact detail for the organization.</t>
-  </si>
-  <si>
-    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
-  </si>
-  <si>
-    <t>Human contact for the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-3
+    <t>Official contact details for the Organization</t>
+  </si>
+  <si>
+    <t>The contact details of communication devices available relevant to the specific Organization. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
+  </si>
+  <si>
+    <t>The address/telecom use code 'home' are not to be used. Note that these contacts are not the contact details of people who provide the service (that would be through PractitionerRole), these are official contacts for the Organization itself for specific purposes. E.g. Mailing Addresses, Billing Addresses, Contact numbers for Booking or Billing Enquiries, general web address, web address for online bookings etc.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {telecom.where(use = 'home').empty()}org-4:The address of an organization can never be of use 'home' {address.where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>.contactParty</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>.playedBy[classCode=Part].scoper</t>
+  </si>
+  <si>
+    <t>Organization.endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>ORC-22?</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>Organization.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>An address for the organization</t>
-  </si>
-  <si>
-    <t>An address for the organization.</t>
-  </si>
-  <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
-  </si>
-  <si>
-    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-2
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>ORC-23?</t>
-  </si>
-  <si>
-    <t>.address</t>
-  </si>
-  <si>
-    <t>./PrimaryAddress and ./OtherAddresses</t>
-  </si>
-  <si>
-    <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
-  </si>
-  <si>
-    <t>.playedBy[classCode=Part].scoper</t>
-  </si>
-  <si>
-    <t>Organization.contact</t>
+    <t>Technical endpoints providing access to services operated for the organization</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the organization.</t>
+  </si>
+  <si>
+    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>Organization.qualification</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>Contact for the organization for a certain purpose</t>
-  </si>
-  <si>
-    <t>Contact for the organization for a certain purpose.</t>
-  </si>
-  <si>
-    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
-  </si>
-  <si>
-    <t>Need to keep track of assigned contact points within bigger organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
-    <t>.contactParty</t>
-  </si>
-  <si>
-    <t>Organization.contact.id</t>
-  </si>
-  <si>
-    <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>Organization.contact.modifierExtension</t>
+    <t>Qualifications, certifications, accreditations, licenses, training, etc pertaining to the provision of care</t>
+  </si>
+  <si>
+    <t>The official certifications, accreditations, training, designations and licenses that authorize and/or otherwise endorse the provision of care by the organization.++For example, an approval to provide a type of services issued by a certifying body (such as the US Joint Commission) to an organization.</t>
+  </si>
+  <si>
+    <t>CER?</t>
+  </si>
+  <si>
+    <t>Organization.qualification.id</t>
+  </si>
+  <si>
+    <t>Organization.qualification.extension</t>
+  </si>
+  <si>
+    <t>Organization.qualification.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -958,99 +946,49 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
-    <t>Organization.contact.purpose</t>
-  </si>
-  <si>
-    <t>The type of contact</t>
-  </si>
-  <si>
-    <t>Indicates a purpose for which the contact can be reached.</t>
-  </si>
-  <si>
-    <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>The purpose for which you would contact a contact party.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>./type</t>
-  </si>
-  <si>
-    <t>Organization.contact.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
-  </si>
-  <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by name.</t>
-  </si>
-  <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom</t>
-  </si>
-  <si>
-    <t>Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
-  </si>
-  <si>
-    <t>PID-13, PID-14</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>Organization.contact.address</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact.</t>
-  </si>
-  <si>
-    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t>PID-11</t>
-  </si>
-  <si>
-    <t>./addr</t>
-  </si>
-  <si>
-    <t>Organization.endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Endpoint)
-</t>
-  </si>
-  <si>
-    <t>Technical endpoints providing access to services operated for the organization</t>
-  </si>
-  <si>
-    <t>Technical endpoints providing access to services operated for the organization.</t>
-  </si>
-  <si>
-    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+    <t>Organization.qualification.identifier</t>
+  </si>
+  <si>
+    <t>An identifier for this qualification for the organization</t>
+  </si>
+  <si>
+    <t>An identifier allocated to this qualification for this organization.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the qualification by the assigning organization.</t>
+  </si>
+  <si>
+    <t>Organization.qualification.code</t>
+  </si>
+  <si>
+    <t>Coded representation of the qualification</t>
+  </si>
+  <si>
+    <t>Coded representation of the qualification.</t>
+  </si>
+  <si>
+    <t>Specific qualification the organization has to provide a service.</t>
+  </si>
+  <si>
+    <t>Organization.qualification.period</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid.</t>
+  </si>
+  <si>
+    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
+  </si>
+  <si>
+    <t>Organization.qualification.issuer</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification.</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1285,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1356,7 +1294,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.84765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1366,7 +1304,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="123.45703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1379,8 +1317,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="54.10546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.45703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1393,8 +1331,9 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.29296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1515,6 +1454,9 @@
       <c r="AM1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1522,4894 +1464,5016 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="AM2" t="s" s="2">
-        <v>80</v>
+      <c r="AN2" t="s" s="2">
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>73</v>
+        <v>223</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>73</v>
+        <v>223</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="AF30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>246</v>
+        <v>161</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>249</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="O35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>293</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>310</v>
+        <v>142</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>314</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>315</v>
+        <v>161</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>326</v>
+        <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>327</v>
+        <v>161</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="333">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLOrganization</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-12T19:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -228,9 +228,6 @@
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
-    <t>Mapping: Interface Pattern</t>
-  </si>
-  <si>
     <t>Mapping: ServD</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
   </si>
   <si>
     <t>Organization(classCode=ORG, determinerCode=INST)</t>
-  </si>
-  <si>
-    <t>ParticipantContactable</t>
   </si>
   <si>
     <t>administrative.group</t>
@@ -283,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -373,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -396,13 +390,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -445,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -484,9 +482,6 @@
     <t>.scopes[Role](classCode=IDENT)</t>
   </si>
   <si>
-    <t>Participant.identifier</t>
-  </si>
-  <si>
     <t>./Identifiers</t>
   </si>
   <si>
@@ -551,7 +546,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -597,7 +592,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -637,7 +632,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -744,9 +739,6 @@
   </si>
   <si>
     <t>.status</t>
-  </si>
-  <si>
-    <t>Participant.active</t>
   </si>
   <si>
     <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
@@ -811,9 +803,6 @@
     <t>.name</t>
   </si>
   <si>
-    <t>Participant.name</t>
-  </si>
-  <si>
     <t>.PreferredName/Name</t>
   </si>
   <si>
@@ -833,60 +822,219 @@
 For searching knowing previous names that the organization was known by can be very useful.</t>
   </si>
   <si>
-    <t>Organization.description</t>
-  </si>
-  <si>
-    <t>Additional details about the Organization that could be displayed as further information to identify the Organization beyond its name</t>
-  </si>
-  <si>
-    <t>Description of the organization, which helps provide additional general context on the organization to ensure that the correct organization is selected.</t>
-  </si>
-  <si>
-    <t>Humans need additional information to verify a correct Organization has been selected.</t>
-  </si>
-  <si>
-    <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
+    <t>Organization.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization.</t>
+  </si>
+  <si>
+    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
+  </si>
+  <si>
+    <t>Human contact for the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-3
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>ORC-22?</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>./ContactPoints</t>
+  </si>
+  <si>
+    <t>Organization.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>An address for the organization</t>
+  </si>
+  <si>
+    <t>An address for the organization.</t>
+  </si>
+  <si>
+    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
+  </si>
+  <si>
+    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-2
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>ORC-23?</t>
+  </si>
+  <si>
+    <t>.address</t>
+  </si>
+  <si>
+    <t>./PrimaryAddress and ./OtherAddresses</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>.playedBy[classCode=Part].scoper</t>
   </si>
   <si>
     <t>Organization.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">ExtendedContactDetail
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>Official contact details for the Organization</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available relevant to the specific Organization. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
-  </si>
-  <si>
-    <t>The address/telecom use code 'home' are not to be used. Note that these contacts are not the contact details of people who provide the service (that would be through PractitionerRole), these are official contacts for the Organization itself for specific purposes. E.g. Mailing Addresses, Billing Addresses, Contact numbers for Booking or Billing Enquiries, general web address, web address for online bookings etc.</t>
+    <t>Contact for the organization for a certain purpose</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose.</t>
+  </si>
+  <si>
+    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
   </si>
   <si>
     <t>Need to keep track of assigned contact points within bigger organization.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {telecom.where(use = 'home').empty()}org-4:The address of an organization can never be of use 'home' {address.where(use = 'home').empty()}</t>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
   </si>
   <si>
     <t>.contactParty</t>
   </si>
   <si>
-    <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
-  </si>
-  <si>
-    <t>.playedBy[classCode=Part].scoper</t>
+    <t>Organization.contact.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.contact.purpose</t>
+  </si>
+  <si>
+    <t>The type of contact</t>
+  </si>
+  <si>
+    <t>Indicates a purpose for which the contact can be reached.</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>The purpose for which you would contact a contact party.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>./type</t>
+  </si>
+  <si>
+    <t>Organization.contact.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>A name associated with the contact</t>
+  </si>
+  <si>
+    <t>A name associated with the contact.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom</t>
+  </si>
+  <si>
+    <t>Contact details (telephone, email, etc.)  for a contact</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>Organization.contact.address</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
+    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>PID-11</t>
+  </si>
+  <si>
+    <t>./addr</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -903,92 +1051,6 @@
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
-  </si>
-  <si>
-    <t>Organization.qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Qualifications, certifications, accreditations, licenses, training, etc pertaining to the provision of care</t>
-  </si>
-  <si>
-    <t>The official certifications, accreditations, training, designations and licenses that authorize and/or otherwise endorse the provision of care by the organization.--For example, an approval to provide a type of services issued by a certifying body (such as the US Joint Commission) to an organization.</t>
-  </si>
-  <si>
-    <t>CER?</t>
-  </si>
-  <si>
-    <t>Organization.qualification.id</t>
-  </si>
-  <si>
-    <t>Organization.qualification.extension</t>
-  </si>
-  <si>
-    <t>Organization.qualification.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.qualification.identifier</t>
-  </si>
-  <si>
-    <t>An identifier for this qualification for the organization</t>
-  </si>
-  <si>
-    <t>An identifier allocated to this qualification for this organization.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the qualification by the assigning organization.</t>
-  </si>
-  <si>
-    <t>Organization.qualification.code</t>
-  </si>
-  <si>
-    <t>Coded representation of the qualification</t>
-  </si>
-  <si>
-    <t>Coded representation of the qualification.</t>
-  </si>
-  <si>
-    <t>Specific qualification the organization has to provide a service.</t>
-  </si>
-  <si>
-    <t>Organization.qualification.period</t>
-  </si>
-  <si>
-    <t>Period during which the qualification is valid</t>
-  </si>
-  <si>
-    <t>Period during which the qualification is valid.</t>
-  </si>
-  <si>
-    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
-  </si>
-  <si>
-    <t>Organization.qualification.issuer</t>
-  </si>
-  <si>
-    <t>Organization that regulates and issues the qualification</t>
-  </si>
-  <si>
-    <t>Organization that regulates and issues the qualification.</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1294,7 +1356,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.84765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1304,7 +1366,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="123.45703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.66015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1317,8 +1379,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.45703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="54.10546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1331,9 +1393,8 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.29296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="218.1953125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1454,9 +1515,6 @@
       <c r="AM1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AN1" t="s" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1464,5016 +1522,4894 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AL8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F10" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="O10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH11" t="s" s="2">
+      <c r="AI11" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AI11" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AI12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AB14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AF14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="O15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AL15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="O17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="S17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="T18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH21" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AI21" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AB23" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AF23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="O24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AL24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="O25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="O26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM26" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="T27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM28" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P30" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="Q30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="O30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="O31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="AK31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="O32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="O34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>277</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>293</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>158</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>291</v>
+        <v>73</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>163</v>
+        <v>300</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>161</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>74</v>
+        <v>320</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="G45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="314">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLOrganization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T20:00:33+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -228,6 +228,9 @@
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
+    <t>Mapping: Interface Pattern</t>
+  </si>
+  <si>
     <t>Mapping: ServD</t>
   </si>
   <si>
@@ -253,6 +256,9 @@
   </si>
   <si>
     <t>Organization(classCode=ORG, determinerCode=INST)</t>
+  </si>
+  <si>
+    <t>ParticipantContactable</t>
   </si>
   <si>
     <t>administrative.group</t>
@@ -277,7 +283,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +373,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,17 +396,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +445,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -482,6 +484,9 @@
     <t>.scopes[Role](classCode=IDENT)</t>
   </si>
   <si>
+    <t>Participant.identifier</t>
+  </si>
+  <si>
     <t>./Identifiers</t>
   </si>
   <si>
@@ -546,7 +551,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -592,7 +597,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -632,7 +637,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -739,6 +744,9 @@
   </si>
   <si>
     <t>.status</t>
+  </si>
+  <si>
+    <t>Participant.active</t>
   </si>
   <si>
     <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
@@ -803,6 +811,9 @@
     <t>.name</t>
   </si>
   <si>
+    <t>Participant.name</t>
+  </si>
+  <si>
     <t>.PreferredName/Name</t>
   </si>
   <si>
@@ -822,126 +833,103 @@
 For searching knowing previous names that the organization was known by can be very useful.</t>
   </si>
   <si>
-    <t>Organization.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
+    <t>Organization.description</t>
+  </si>
+  <si>
+    <t>Additional details about the Organization that could be displayed as further information to identify the Organization beyond its name</t>
+  </si>
+  <si>
+    <t>Description of the organization, which helps provide additional general context on the organization to ensure that the correct organization is selected.</t>
+  </si>
+  <si>
+    <t>Humans need additional information to verify a correct Organization has been selected.</t>
+  </si>
+  <si>
+    <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
+  </si>
+  <si>
+    <t>Organization.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExtendedContactDetail
 </t>
   </si>
   <si>
-    <t>A contact detail for the organization</t>
-  </si>
-  <si>
-    <t>A contact detail for the organization.</t>
-  </si>
-  <si>
-    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
-  </si>
-  <si>
-    <t>Human contact for the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-3
+    <t>Official contact details for the Organization</t>
+  </si>
+  <si>
+    <t>The contact details of communication devices available relevant to the specific Organization. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
+  </si>
+  <si>
+    <t>The address/telecom use code 'home' are not to be used. Note that these contacts are not the contact details of people who provide the service (that would be through PractitionerRole), these are official contacts for the Organization itself for specific purposes. E.g. Mailing Addresses, Billing Addresses, Contact numbers for Booking or Billing Enquiries, general web address, web address for online bookings etc.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {telecom.where(use = 'home').empty()}org-4:The address of an organization can never be of use 'home' {address.where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>.contactParty</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>.playedBy[classCode=Part].scoper</t>
+  </si>
+  <si>
+    <t>Organization.endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>ORC-22?</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>Organization.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>An address for the organization</t>
-  </si>
-  <si>
-    <t>An address for the organization.</t>
-  </si>
-  <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
-  </si>
-  <si>
-    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-2
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>ORC-23?</t>
-  </si>
-  <si>
-    <t>.address</t>
-  </si>
-  <si>
-    <t>./PrimaryAddress and ./OtherAddresses</t>
-  </si>
-  <si>
-    <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
-  </si>
-  <si>
-    <t>.playedBy[classCode=Part].scoper</t>
-  </si>
-  <si>
-    <t>Organization.contact</t>
+    <t>Technical endpoints providing access to services operated for the organization</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the organization.</t>
+  </si>
+  <si>
+    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>Organization.qualification</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>Contact for the organization for a certain purpose</t>
-  </si>
-  <si>
-    <t>Contact for the organization for a certain purpose.</t>
-  </si>
-  <si>
-    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
-  </si>
-  <si>
-    <t>Need to keep track of assigned contact points within bigger organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
-    <t>.contactParty</t>
-  </si>
-  <si>
-    <t>Organization.contact.id</t>
-  </si>
-  <si>
-    <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>Organization.contact.modifierExtension</t>
+    <t>Qualifications, certifications, accreditations, licenses, training, etc pertaining to the provision of care</t>
+  </si>
+  <si>
+    <t>The official certifications, accreditations, training, designations and licenses that authorize and/or otherwise endorse the provision of care by the organization.++For example, an approval to provide a type of services issued by a certifying body (such as the US Joint Commission) to an organization.</t>
+  </si>
+  <si>
+    <t>CER?</t>
+  </si>
+  <si>
+    <t>Organization.qualification.id</t>
+  </si>
+  <si>
+    <t>Organization.qualification.extension</t>
+  </si>
+  <si>
+    <t>Organization.qualification.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -958,99 +946,49 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
-    <t>Organization.contact.purpose</t>
-  </si>
-  <si>
-    <t>The type of contact</t>
-  </si>
-  <si>
-    <t>Indicates a purpose for which the contact can be reached.</t>
-  </si>
-  <si>
-    <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>The purpose for which you would contact a contact party.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>./type</t>
-  </si>
-  <si>
-    <t>Organization.contact.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
-  </si>
-  <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by name.</t>
-  </si>
-  <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom</t>
-  </si>
-  <si>
-    <t>Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
-  </si>
-  <si>
-    <t>PID-13, PID-14</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>Organization.contact.address</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact.</t>
-  </si>
-  <si>
-    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t>PID-11</t>
-  </si>
-  <si>
-    <t>./addr</t>
-  </si>
-  <si>
-    <t>Organization.endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Endpoint)
-</t>
-  </si>
-  <si>
-    <t>Technical endpoints providing access to services operated for the organization</t>
-  </si>
-  <si>
-    <t>Technical endpoints providing access to services operated for the organization.</t>
-  </si>
-  <si>
-    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+    <t>Organization.qualification.identifier</t>
+  </si>
+  <si>
+    <t>An identifier for this qualification for the organization</t>
+  </si>
+  <si>
+    <t>An identifier allocated to this qualification for this organization.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the qualification by the assigning organization.</t>
+  </si>
+  <si>
+    <t>Organization.qualification.code</t>
+  </si>
+  <si>
+    <t>Coded representation of the qualification</t>
+  </si>
+  <si>
+    <t>Coded representation of the qualification.</t>
+  </si>
+  <si>
+    <t>Specific qualification the organization has to provide a service.</t>
+  </si>
+  <si>
+    <t>Organization.qualification.period</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid.</t>
+  </si>
+  <si>
+    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
+  </si>
+  <si>
+    <t>Organization.qualification.issuer</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification.</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1285,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1356,7 +1294,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.84765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1366,7 +1304,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="123.45703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1379,8 +1317,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="54.10546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.45703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1393,8 +1331,9 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.29296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1515,6 +1454,9 @@
       <c r="AM1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1522,4894 +1464,5016 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="AM2" t="s" s="2">
-        <v>80</v>
+      <c r="AN2" t="s" s="2">
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>73</v>
+        <v>223</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>73</v>
+        <v>223</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="AF30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>246</v>
+        <v>161</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>249</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="O35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>293</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>310</v>
+        <v>142</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>314</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>315</v>
+        <v>161</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>326</v>
+        <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>327</v>
+        <v>161</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="333">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLOrganization</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-16T21:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -228,9 +228,6 @@
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
-    <t>Mapping: Interface Pattern</t>
-  </si>
-  <si>
     <t>Mapping: ServD</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
   </si>
   <si>
     <t>Organization(classCode=ORG, determinerCode=INST)</t>
-  </si>
-  <si>
-    <t>ParticipantContactable</t>
   </si>
   <si>
     <t>administrative.group</t>
@@ -283,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -373,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -396,13 +390,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -445,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -484,9 +482,6 @@
     <t>.scopes[Role](classCode=IDENT)</t>
   </si>
   <si>
-    <t>Participant.identifier</t>
-  </si>
-  <si>
     <t>./Identifiers</t>
   </si>
   <si>
@@ -551,7 +546,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -597,7 +592,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -637,7 +632,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -744,9 +739,6 @@
   </si>
   <si>
     <t>.status</t>
-  </si>
-  <si>
-    <t>Participant.active</t>
   </si>
   <si>
     <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
@@ -811,9 +803,6 @@
     <t>.name</t>
   </si>
   <si>
-    <t>Participant.name</t>
-  </si>
-  <si>
     <t>.PreferredName/Name</t>
   </si>
   <si>
@@ -833,60 +822,219 @@
 For searching knowing previous names that the organization was known by can be very useful.</t>
   </si>
   <si>
-    <t>Organization.description</t>
-  </si>
-  <si>
-    <t>Additional details about the Organization that could be displayed as further information to identify the Organization beyond its name</t>
-  </si>
-  <si>
-    <t>Description of the organization, which helps provide additional general context on the organization to ensure that the correct organization is selected.</t>
-  </si>
-  <si>
-    <t>Humans need additional information to verify a correct Organization has been selected.</t>
-  </si>
-  <si>
-    <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
+    <t>Organization.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization.</t>
+  </si>
+  <si>
+    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
+  </si>
+  <si>
+    <t>Human contact for the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-3
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>ORC-22?</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>./ContactPoints</t>
+  </si>
+  <si>
+    <t>Organization.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>An address for the organization</t>
+  </si>
+  <si>
+    <t>An address for the organization.</t>
+  </si>
+  <si>
+    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
+  </si>
+  <si>
+    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-2
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>ORC-23?</t>
+  </si>
+  <si>
+    <t>.address</t>
+  </si>
+  <si>
+    <t>./PrimaryAddress and ./OtherAddresses</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>.playedBy[classCode=Part].scoper</t>
   </si>
   <si>
     <t>Organization.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">ExtendedContactDetail
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>Official contact details for the Organization</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available relevant to the specific Organization. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
-  </si>
-  <si>
-    <t>The address/telecom use code 'home' are not to be used. Note that these contacts are not the contact details of people who provide the service (that would be through PractitionerRole), these are official contacts for the Organization itself for specific purposes. E.g. Mailing Addresses, Billing Addresses, Contact numbers for Booking or Billing Enquiries, general web address, web address for online bookings etc.</t>
+    <t>Contact for the organization for a certain purpose</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose.</t>
+  </si>
+  <si>
+    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
   </si>
   <si>
     <t>Need to keep track of assigned contact points within bigger organization.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {telecom.where(use = 'home').empty()}org-4:The address of an organization can never be of use 'home' {address.where(use = 'home').empty()}</t>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
   </si>
   <si>
     <t>.contactParty</t>
   </si>
   <si>
-    <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
-  </si>
-  <si>
-    <t>.playedBy[classCode=Part].scoper</t>
+    <t>Organization.contact.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.contact.purpose</t>
+  </si>
+  <si>
+    <t>The type of contact</t>
+  </si>
+  <si>
+    <t>Indicates a purpose for which the contact can be reached.</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>The purpose for which you would contact a contact party.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>./type</t>
+  </si>
+  <si>
+    <t>Organization.contact.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>A name associated with the contact</t>
+  </si>
+  <si>
+    <t>A name associated with the contact.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom</t>
+  </si>
+  <si>
+    <t>Contact details (telephone, email, etc.)  for a contact</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>Organization.contact.address</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
+    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>PID-11</t>
+  </si>
+  <si>
+    <t>./addr</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -903,92 +1051,6 @@
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
-  </si>
-  <si>
-    <t>Organization.qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Qualifications, certifications, accreditations, licenses, training, etc pertaining to the provision of care</t>
-  </si>
-  <si>
-    <t>The official certifications, accreditations, training, designations and licenses that authorize and/or otherwise endorse the provision of care by the organization.--For example, an approval to provide a type of services issued by a certifying body (such as the US Joint Commission) to an organization.</t>
-  </si>
-  <si>
-    <t>CER?</t>
-  </si>
-  <si>
-    <t>Organization.qualification.id</t>
-  </si>
-  <si>
-    <t>Organization.qualification.extension</t>
-  </si>
-  <si>
-    <t>Organization.qualification.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.qualification.identifier</t>
-  </si>
-  <si>
-    <t>An identifier for this qualification for the organization</t>
-  </si>
-  <si>
-    <t>An identifier allocated to this qualification for this organization.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the qualification by the assigning organization.</t>
-  </si>
-  <si>
-    <t>Organization.qualification.code</t>
-  </si>
-  <si>
-    <t>Coded representation of the qualification</t>
-  </si>
-  <si>
-    <t>Coded representation of the qualification.</t>
-  </si>
-  <si>
-    <t>Specific qualification the organization has to provide a service.</t>
-  </si>
-  <si>
-    <t>Organization.qualification.period</t>
-  </si>
-  <si>
-    <t>Period during which the qualification is valid</t>
-  </si>
-  <si>
-    <t>Period during which the qualification is valid.</t>
-  </si>
-  <si>
-    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
-  </si>
-  <si>
-    <t>Organization.qualification.issuer</t>
-  </si>
-  <si>
-    <t>Organization that regulates and issues the qualification</t>
-  </si>
-  <si>
-    <t>Organization that regulates and issues the qualification.</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1294,7 +1356,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.84765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1304,7 +1366,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="123.45703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.66015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1317,8 +1379,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.45703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="54.10546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1331,9 +1393,8 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.29296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="218.1953125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1454,9 +1515,6 @@
       <c r="AM1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AN1" t="s" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1464,5016 +1522,4894 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AL8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F10" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="O10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH11" t="s" s="2">
+      <c r="AI11" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AI11" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AI12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AB14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AF14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="O15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AL15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="O17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="S17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="T18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH21" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AI21" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AB23" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AF23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="O24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AL24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="O25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="O26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM26" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="T27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM28" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P30" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="Q30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="O30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="O31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="AK31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="O32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="O34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>277</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>293</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>158</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>291</v>
+        <v>73</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>163</v>
+        <v>300</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>161</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>74</v>
+        <v>320</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="G45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="314">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLOrganization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T06:36:33+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -228,6 +228,9 @@
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
+    <t>Mapping: Interface Pattern</t>
+  </si>
+  <si>
     <t>Mapping: ServD</t>
   </si>
   <si>
@@ -253,6 +256,9 @@
   </si>
   <si>
     <t>Organization(classCode=ORG, determinerCode=INST)</t>
+  </si>
+  <si>
+    <t>ParticipantContactable</t>
   </si>
   <si>
     <t>administrative.group</t>
@@ -277,7 +283,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +373,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,17 +396,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +445,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -482,6 +484,9 @@
     <t>.scopes[Role](classCode=IDENT)</t>
   </si>
   <si>
+    <t>Participant.identifier</t>
+  </si>
+  <si>
     <t>./Identifiers</t>
   </si>
   <si>
@@ -546,7 +551,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -592,7 +597,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -632,7 +637,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -739,6 +744,9 @@
   </si>
   <si>
     <t>.status</t>
+  </si>
+  <si>
+    <t>Participant.active</t>
   </si>
   <si>
     <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
@@ -803,6 +811,9 @@
     <t>.name</t>
   </si>
   <si>
+    <t>Participant.name</t>
+  </si>
+  <si>
     <t>.PreferredName/Name</t>
   </si>
   <si>
@@ -822,126 +833,103 @@
 For searching knowing previous names that the organization was known by can be very useful.</t>
   </si>
   <si>
-    <t>Organization.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
+    <t>Organization.description</t>
+  </si>
+  <si>
+    <t>Additional details about the Organization that could be displayed as further information to identify the Organization beyond its name</t>
+  </si>
+  <si>
+    <t>Description of the organization, which helps provide additional general context on the organization to ensure that the correct organization is selected.</t>
+  </si>
+  <si>
+    <t>Humans need additional information to verify a correct Organization has been selected.</t>
+  </si>
+  <si>
+    <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
+  </si>
+  <si>
+    <t>Organization.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExtendedContactDetail
 </t>
   </si>
   <si>
-    <t>A contact detail for the organization</t>
-  </si>
-  <si>
-    <t>A contact detail for the organization.</t>
-  </si>
-  <si>
-    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
-  </si>
-  <si>
-    <t>Human contact for the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-3
+    <t>Official contact details for the Organization</t>
+  </si>
+  <si>
+    <t>The contact details of communication devices available relevant to the specific Organization. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
+  </si>
+  <si>
+    <t>The address/telecom use code 'home' are not to be used. Note that these contacts are not the contact details of people who provide the service (that would be through PractitionerRole), these are official contacts for the Organization itself for specific purposes. E.g. Mailing Addresses, Billing Addresses, Contact numbers for Booking or Billing Enquiries, general web address, web address for online bookings etc.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {telecom.where(use = 'home').empty()}org-4:The address of an organization can never be of use 'home' {address.where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>.contactParty</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>.playedBy[classCode=Part].scoper</t>
+  </si>
+  <si>
+    <t>Organization.endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>ORC-22?</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>Organization.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>An address for the organization</t>
-  </si>
-  <si>
-    <t>An address for the organization.</t>
-  </si>
-  <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
-  </si>
-  <si>
-    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-2
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>ORC-23?</t>
-  </si>
-  <si>
-    <t>.address</t>
-  </si>
-  <si>
-    <t>./PrimaryAddress and ./OtherAddresses</t>
-  </si>
-  <si>
-    <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
-  </si>
-  <si>
-    <t>.playedBy[classCode=Part].scoper</t>
-  </si>
-  <si>
-    <t>Organization.contact</t>
+    <t>Technical endpoints providing access to services operated for the organization</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the organization.</t>
+  </si>
+  <si>
+    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>Organization.qualification</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>Contact for the organization for a certain purpose</t>
-  </si>
-  <si>
-    <t>Contact for the organization for a certain purpose.</t>
-  </si>
-  <si>
-    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
-  </si>
-  <si>
-    <t>Need to keep track of assigned contact points within bigger organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
-    <t>.contactParty</t>
-  </si>
-  <si>
-    <t>Organization.contact.id</t>
-  </si>
-  <si>
-    <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>Organization.contact.modifierExtension</t>
+    <t>Qualifications, certifications, accreditations, licenses, training, etc pertaining to the provision of care</t>
+  </si>
+  <si>
+    <t>The official certifications, accreditations, training, designations and licenses that authorize and/or otherwise endorse the provision of care by the organization.++For example, an approval to provide a type of services issued by a certifying body (such as the US Joint Commission) to an organization.</t>
+  </si>
+  <si>
+    <t>CER?</t>
+  </si>
+  <si>
+    <t>Organization.qualification.id</t>
+  </si>
+  <si>
+    <t>Organization.qualification.extension</t>
+  </si>
+  <si>
+    <t>Organization.qualification.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -958,99 +946,49 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
-    <t>Organization.contact.purpose</t>
-  </si>
-  <si>
-    <t>The type of contact</t>
-  </si>
-  <si>
-    <t>Indicates a purpose for which the contact can be reached.</t>
-  </si>
-  <si>
-    <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>The purpose for which you would contact a contact party.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>./type</t>
-  </si>
-  <si>
-    <t>Organization.contact.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
-  </si>
-  <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by name.</t>
-  </si>
-  <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom</t>
-  </si>
-  <si>
-    <t>Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
-  </si>
-  <si>
-    <t>PID-13, PID-14</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>Organization.contact.address</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact.</t>
-  </si>
-  <si>
-    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t>PID-11</t>
-  </si>
-  <si>
-    <t>./addr</t>
-  </si>
-  <si>
-    <t>Organization.endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Endpoint)
-</t>
-  </si>
-  <si>
-    <t>Technical endpoints providing access to services operated for the organization</t>
-  </si>
-  <si>
-    <t>Technical endpoints providing access to services operated for the organization.</t>
-  </si>
-  <si>
-    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+    <t>Organization.qualification.identifier</t>
+  </si>
+  <si>
+    <t>An identifier for this qualification for the organization</t>
+  </si>
+  <si>
+    <t>An identifier allocated to this qualification for this organization.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the qualification by the assigning organization.</t>
+  </si>
+  <si>
+    <t>Organization.qualification.code</t>
+  </si>
+  <si>
+    <t>Coded representation of the qualification</t>
+  </si>
+  <si>
+    <t>Coded representation of the qualification.</t>
+  </si>
+  <si>
+    <t>Specific qualification the organization has to provide a service.</t>
+  </si>
+  <si>
+    <t>Organization.qualification.period</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid.</t>
+  </si>
+  <si>
+    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
+  </si>
+  <si>
+    <t>Organization.qualification.issuer</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification.</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1285,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1356,7 +1294,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.84765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1366,7 +1304,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="123.45703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1379,8 +1317,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="54.10546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.45703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1393,8 +1331,9 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.29296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1515,6 +1454,9 @@
       <c r="AM1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1522,4894 +1464,5016 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="AM2" t="s" s="2">
-        <v>80</v>
+      <c r="AN2" t="s" s="2">
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>73</v>
+        <v>223</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>73</v>
+        <v>223</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="AF30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>246</v>
+        <v>161</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>249</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="O35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>293</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>310</v>
+        <v>142</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>314</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>315</v>
+        <v>161</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>326</v>
+        <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>327</v>
+        <v>161</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="333">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLOrganization</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T17:44:56+00:00</t>
+    <t>2022-11-18T19:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -228,9 +228,6 @@
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
-    <t>Mapping: Interface Pattern</t>
-  </si>
-  <si>
     <t>Mapping: ServD</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
   </si>
   <si>
     <t>Organization(classCode=ORG, determinerCode=INST)</t>
-  </si>
-  <si>
-    <t>ParticipantContactable</t>
   </si>
   <si>
     <t>administrative.group</t>
@@ -283,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -373,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -396,13 +390,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -445,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -484,9 +482,6 @@
     <t>.scopes[Role](classCode=IDENT)</t>
   </si>
   <si>
-    <t>Participant.identifier</t>
-  </si>
-  <si>
     <t>./Identifiers</t>
   </si>
   <si>
@@ -551,7 +546,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -597,7 +592,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -637,7 +632,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -744,9 +739,6 @@
   </si>
   <si>
     <t>.status</t>
-  </si>
-  <si>
-    <t>Participant.active</t>
   </si>
   <si>
     <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
@@ -811,9 +803,6 @@
     <t>.name</t>
   </si>
   <si>
-    <t>Participant.name</t>
-  </si>
-  <si>
     <t>.PreferredName/Name</t>
   </si>
   <si>
@@ -833,60 +822,219 @@
 For searching knowing previous names that the organization was known by can be very useful.</t>
   </si>
   <si>
-    <t>Organization.description</t>
-  </si>
-  <si>
-    <t>Additional details about the Organization that could be displayed as further information to identify the Organization beyond its name</t>
-  </si>
-  <si>
-    <t>Description of the organization, which helps provide additional general context on the organization to ensure that the correct organization is selected.</t>
-  </si>
-  <si>
-    <t>Humans need additional information to verify a correct Organization has been selected.</t>
-  </si>
-  <si>
-    <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
+    <t>Organization.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization.</t>
+  </si>
+  <si>
+    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
+  </si>
+  <si>
+    <t>Human contact for the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-3
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>ORC-22?</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>./ContactPoints</t>
+  </si>
+  <si>
+    <t>Organization.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>An address for the organization</t>
+  </si>
+  <si>
+    <t>An address for the organization.</t>
+  </si>
+  <si>
+    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
+  </si>
+  <si>
+    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-2
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>ORC-23?</t>
+  </si>
+  <si>
+    <t>.address</t>
+  </si>
+  <si>
+    <t>./PrimaryAddress and ./OtherAddresses</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>.playedBy[classCode=Part].scoper</t>
   </si>
   <si>
     <t>Organization.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">ExtendedContactDetail
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>Official contact details for the Organization</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available relevant to the specific Organization. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
-  </si>
-  <si>
-    <t>The address/telecom use code 'home' are not to be used. Note that these contacts are not the contact details of people who provide the service (that would be through PractitionerRole), these are official contacts for the Organization itself for specific purposes. E.g. Mailing Addresses, Billing Addresses, Contact numbers for Booking or Billing Enquiries, general web address, web address for online bookings etc.</t>
+    <t>Contact for the organization for a certain purpose</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose.</t>
+  </si>
+  <si>
+    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
   </si>
   <si>
     <t>Need to keep track of assigned contact points within bigger organization.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {telecom.where(use = 'home').empty()}org-4:The address of an organization can never be of use 'home' {address.where(use = 'home').empty()}</t>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
   </si>
   <si>
     <t>.contactParty</t>
   </si>
   <si>
-    <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
-  </si>
-  <si>
-    <t>.playedBy[classCode=Part].scoper</t>
+    <t>Organization.contact.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.contact.purpose</t>
+  </si>
+  <si>
+    <t>The type of contact</t>
+  </si>
+  <si>
+    <t>Indicates a purpose for which the contact can be reached.</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>The purpose for which you would contact a contact party.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>./type</t>
+  </si>
+  <si>
+    <t>Organization.contact.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>A name associated with the contact</t>
+  </si>
+  <si>
+    <t>A name associated with the contact.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom</t>
+  </si>
+  <si>
+    <t>Contact details (telephone, email, etc.)  for a contact</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>Organization.contact.address</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
+    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>PID-11</t>
+  </si>
+  <si>
+    <t>./addr</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -903,92 +1051,6 @@
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
-  </si>
-  <si>
-    <t>Organization.qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Qualifications, certifications, accreditations, licenses, training, etc pertaining to the provision of care</t>
-  </si>
-  <si>
-    <t>The official certifications, accreditations, training, designations and licenses that authorize and/or otherwise endorse the provision of care by the organization.--For example, an approval to provide a type of services issued by a certifying body (such as the US Joint Commission) to an organization.</t>
-  </si>
-  <si>
-    <t>CER?</t>
-  </si>
-  <si>
-    <t>Organization.qualification.id</t>
-  </si>
-  <si>
-    <t>Organization.qualification.extension</t>
-  </si>
-  <si>
-    <t>Organization.qualification.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.qualification.identifier</t>
-  </si>
-  <si>
-    <t>An identifier for this qualification for the organization</t>
-  </si>
-  <si>
-    <t>An identifier allocated to this qualification for this organization.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the qualification by the assigning organization.</t>
-  </si>
-  <si>
-    <t>Organization.qualification.code</t>
-  </si>
-  <si>
-    <t>Coded representation of the qualification</t>
-  </si>
-  <si>
-    <t>Coded representation of the qualification.</t>
-  </si>
-  <si>
-    <t>Specific qualification the organization has to provide a service.</t>
-  </si>
-  <si>
-    <t>Organization.qualification.period</t>
-  </si>
-  <si>
-    <t>Period during which the qualification is valid</t>
-  </si>
-  <si>
-    <t>Period during which the qualification is valid.</t>
-  </si>
-  <si>
-    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
-  </si>
-  <si>
-    <t>Organization.qualification.issuer</t>
-  </si>
-  <si>
-    <t>Organization that regulates and issues the qualification</t>
-  </si>
-  <si>
-    <t>Organization that regulates and issues the qualification.</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1294,7 +1356,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.84765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1304,7 +1366,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="123.45703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.66015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1317,8 +1379,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.45703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="54.10546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1331,9 +1393,8 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.29296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="218.1953125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1454,9 +1515,6 @@
       <c r="AM1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AN1" t="s" s="1">
-        <v>73</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1464,5016 +1522,4894 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AL8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F10" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="O10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH11" t="s" s="2">
+      <c r="AI11" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AI11" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AI12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AB14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AF14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="O15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AL15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="O17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="S17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="T18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH21" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AI21" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AB23" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AF23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="O24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AL24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="O25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="O26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM26" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="T27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM28" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AM29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P30" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="Q30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="O30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="O31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="AK31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="O32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="O34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>277</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>293</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>158</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>291</v>
+        <v>73</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>163</v>
+        <v>300</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>161</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>74</v>
+        <v>320</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="G45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:50:12+00:00</t>
+    <t>2022-11-18T19:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLOrganization.xlsx
+++ b/StructureDefinition-PPLOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
